--- a/stats.xlsx
+++ b/stats.xlsx
@@ -113,22 +113,22 @@
     <t>RM</t>
   </si>
   <si>
+    <t>FC</t>
+  </si>
+  <si>
+    <t>SY</t>
+  </si>
+  <si>
+    <t>CT/PT</t>
+  </si>
+  <si>
+    <t>ZZAnonyme</t>
+  </si>
+  <si>
+    <t>EG/FM</t>
+  </si>
+  <si>
     <t>PL</t>
-  </si>
-  <si>
-    <t>FC</t>
-  </si>
-  <si>
-    <t>SY</t>
-  </si>
-  <si>
-    <t>CT/PT</t>
-  </si>
-  <si>
-    <t>ZZAnonyme</t>
-  </si>
-  <si>
-    <t>EG/FM</t>
   </si>
   <si>
     <t>MC/FM</t>
@@ -802,19 +802,19 @@
         <v>33</v>
       </c>
       <c r="B29" s="29" t="n">
-        <v>6.0</v>
+        <v>22.0</v>
       </c>
       <c r="C29" s="29" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="D29" s="29" t="n">
-        <v>28.0</v>
+        <v>12.0</v>
       </c>
       <c r="E29" s="29" t="n">
         <v>0.0</v>
       </c>
       <c r="F29" s="29" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="30">
@@ -822,10 +822,10 @@
         <v>34</v>
       </c>
       <c r="B30" s="30" t="n">
-        <v>16.0</v>
+        <v>0.0</v>
       </c>
       <c r="C30" s="30" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="D30" s="30" t="n">
         <v>8.0</v>
@@ -834,7 +834,7 @@
         <v>0.0</v>
       </c>
       <c r="F30" s="30" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="31">
@@ -848,7 +848,7 @@
         <v>0.0</v>
       </c>
       <c r="D31" s="31" t="n">
-        <v>8.0</v>
+        <v>32.0</v>
       </c>
       <c r="E31" s="31" t="n">
         <v>0.0</v>
@@ -868,10 +868,10 @@
         <v>0.0</v>
       </c>
       <c r="D32" s="32" t="n">
-        <v>32.0</v>
+        <v>12.0</v>
       </c>
       <c r="E32" s="32" t="n">
-        <v>0.0</v>
+        <v>138.25</v>
       </c>
       <c r="F32" s="32" t="n">
         <v>0.0</v>
@@ -888,10 +888,10 @@
         <v>0.0</v>
       </c>
       <c r="D33" s="33" t="n">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="E33" s="33" t="n">
-        <v>144.25</v>
+        <v>0.0</v>
       </c>
       <c r="F33" s="33" t="n">
         <v>0.0</v>
@@ -908,13 +908,13 @@
         <v>0.0</v>
       </c>
       <c r="D34" s="34" t="n">
-        <v>8.0</v>
+        <v>24.0</v>
       </c>
       <c r="E34" s="34" t="n">
         <v>0.0</v>
       </c>
       <c r="F34" s="34" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="35">
@@ -951,7 +951,7 @@
         <v>0.0</v>
       </c>
       <c r="E36" s="36" t="n">
-        <v>148.25</v>
+        <v>142.25</v>
       </c>
       <c r="F36" s="36" t="n">
         <v>0.0</v>

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>Enseignant</t>
   </si>
@@ -32,16 +32,22 @@
     <t>Contrôle</t>
   </si>
   <si>
-    <t>BC</t>
-  </si>
-  <si>
-    <t>FG</t>
-  </si>
-  <si>
-    <t>KRTX9AB2</t>
-  </si>
-  <si>
-    <t>KRTX9AB1</t>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>TG</t>
+  </si>
+  <si>
+    <t>ZZApogeeMissing</t>
+  </si>
+  <si>
+    <t>KINX5AB2</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>KINX6AA1</t>
   </si>
   <si>
     <t>PT</t>
@@ -53,100 +59,106 @@
     <t>FM</t>
   </si>
   <si>
-    <t>TAS</t>
-  </si>
-  <si>
-    <t>YL</t>
-  </si>
-  <si>
-    <t>KRTA9AD1</t>
-  </si>
-  <si>
-    <t>KRTA9AD2</t>
-  </si>
-  <si>
-    <t>Capgemini</t>
-  </si>
-  <si>
-    <t>KRTX9AC1</t>
-  </si>
-  <si>
-    <t>AA</t>
-  </si>
-  <si>
-    <t>KRTX9AA1</t>
-  </si>
-  <si>
-    <t>KRTX9AC2</t>
-  </si>
-  <si>
-    <t>KRTX9AA3</t>
-  </si>
-  <si>
-    <t>KRTX9AA2</t>
-  </si>
-  <si>
-    <t>CH</t>
+    <t>KINX6AB1</t>
+  </si>
+  <si>
+    <t>JS</t>
+  </si>
+  <si>
+    <t>KINX6AB2</t>
+  </si>
+  <si>
+    <t>KINR5AA1</t>
+  </si>
+  <si>
+    <t>KINR6AD1</t>
+  </si>
+  <si>
+    <t>KINR6AD2</t>
+  </si>
+  <si>
+    <t>KUPX6BA5</t>
+  </si>
+  <si>
+    <t>KUPT6BB3</t>
+  </si>
+  <si>
+    <t>KUPX6BA4</t>
+  </si>
+  <si>
+    <t>KUPT6AB1</t>
+  </si>
+  <si>
+    <t>KUPX6BA3</t>
+  </si>
+  <si>
+    <t>KUPX6AA4</t>
+  </si>
+  <si>
+    <t>KUPT6AB2</t>
+  </si>
+  <si>
+    <t>MM/AA</t>
+  </si>
+  <si>
+    <t>KUPX6BA2</t>
+  </si>
+  <si>
+    <t>KUPX6AA3</t>
+  </si>
+  <si>
+    <t>KUPX6BA1</t>
+  </si>
+  <si>
+    <t>ZZAnonyme</t>
+  </si>
+  <si>
+    <t>KINR6AV1</t>
+  </si>
+  <si>
+    <t>MM</t>
+  </si>
+  <si>
+    <t>RK/CT</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>KRIN6AD2</t>
+  </si>
+  <si>
+    <t>KINX6AC1</t>
+  </si>
+  <si>
+    <t>KINR6AE2</t>
+  </si>
+  <si>
+    <t>KUPT6BA1</t>
+  </si>
+  <si>
+    <t>KINX6AA2</t>
+  </si>
+  <si>
+    <t>KINR6AE1</t>
+  </si>
+  <si>
+    <t>PA</t>
   </si>
   <si>
     <t>CT</t>
   </si>
   <si>
-    <t>PA</t>
-  </si>
-  <si>
-    <t>Catalyseur</t>
-  </si>
-  <si>
-    <t>KRTA9AA3</t>
-  </si>
-  <si>
-    <t>PD</t>
+    <t>TD/CT/EL</t>
+  </si>
+  <si>
+    <t>TP1GTC</t>
   </si>
   <si>
     <t>JGT</t>
   </si>
   <si>
     <t>RK</t>
-  </si>
-  <si>
-    <t>RM</t>
-  </si>
-  <si>
-    <t>FC</t>
-  </si>
-  <si>
-    <t>SY</t>
-  </si>
-  <si>
-    <t>CT/PT</t>
-  </si>
-  <si>
-    <t>ZZAnonyme</t>
-  </si>
-  <si>
-    <t>EG/FM</t>
-  </si>
-  <si>
-    <t>PL</t>
-  </si>
-  <si>
-    <t>MC/FM</t>
-  </si>
-  <si>
-    <t>ZZApogeeMissing</t>
-  </si>
-  <si>
-    <t>MOOC/BE/Projet…</t>
-  </si>
-  <si>
-    <t>CapGemini</t>
-  </si>
-  <si>
-    <t>RM/SY</t>
-  </si>
-  <si>
-    <t>FC/RK</t>
   </si>
 </sst>
 </file>
@@ -183,7 +195,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="46">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -231,7 +248,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -262,7 +279,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>0.0</v>
@@ -271,10 +288,10 @@
         <v>0.0</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.0</v>
+        <v>40.0</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -282,7 +299,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>19.0</v>
+        <v>2.0</v>
       </c>
       <c r="C3" s="3" t="n">
         <v>0.0</v>
@@ -294,7 +311,7 @@
         <v>0.0</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
@@ -302,19 +319,19 @@
         <v>8</v>
       </c>
       <c r="B4" s="4" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D4" s="4" t="n">
         <v>12.0</v>
       </c>
-      <c r="C4" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>16.0</v>
-      </c>
       <c r="E4" s="4" t="n">
-        <v>0.0</v>
+        <v>812.0</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
@@ -322,10 +339,10 @@
         <v>9</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>26.0</v>
+        <v>2.0</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0.0</v>
@@ -334,7 +351,7 @@
         <v>0.0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
@@ -342,19 +359,19 @@
         <v>10</v>
       </c>
       <c r="B6" s="6" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="C6" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D6" s="6" t="n">
         <v>2.0</v>
       </c>
-      <c r="D6" s="6" t="n">
-        <v>0.0</v>
-      </c>
       <c r="E6" s="6" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
@@ -362,19 +379,19 @@
         <v>11</v>
       </c>
       <c r="B7" s="7" t="n">
-        <v>16.0</v>
+        <v>0.0</v>
       </c>
       <c r="C7" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="D7" s="7" t="n">
-        <v>40.0</v>
+        <v>10.0</v>
       </c>
       <c r="E7" s="7" t="n">
-        <v>0.0</v>
+        <v>56.0</v>
       </c>
       <c r="F7" s="7" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
@@ -382,7 +399,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="8" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="C8" s="8" t="n">
         <v>0.0</v>
@@ -391,7 +408,7 @@
         <v>0.0</v>
       </c>
       <c r="E8" s="8" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="F8" s="8" t="n">
         <v>0.0</v>
@@ -402,19 +419,19 @@
         <v>13</v>
       </c>
       <c r="B9" s="9" t="n">
-        <v>16.0</v>
+        <v>0.0</v>
       </c>
       <c r="C9" s="9" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="D9" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="E9" s="9" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="F9" s="9" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="10">
@@ -422,7 +439,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="10" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="C10" s="10" t="n">
         <v>0.0</v>
@@ -431,10 +448,10 @@
         <v>0.0</v>
       </c>
       <c r="E10" s="10" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="F10" s="10" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
@@ -442,19 +459,19 @@
         <v>15</v>
       </c>
       <c r="B11" s="11" t="n">
-        <v>14.0</v>
+        <v>0.0</v>
       </c>
       <c r="C11" s="11" t="n">
-        <v>17.0</v>
+        <v>0.0</v>
       </c>
       <c r="D11" s="11" t="n">
         <v>0.0</v>
       </c>
       <c r="E11" s="11" t="n">
-        <v>0.0</v>
+        <v>54.0</v>
       </c>
       <c r="F11" s="11" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="12">
@@ -462,7 +479,7 @@
         <v>16</v>
       </c>
       <c r="B12" s="12" t="n">
-        <v>19.0</v>
+        <v>0.0</v>
       </c>
       <c r="C12" s="12" t="n">
         <v>0.0</v>
@@ -471,10 +488,10 @@
         <v>0.0</v>
       </c>
       <c r="E12" s="12" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="F12" s="12" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="13">
@@ -482,7 +499,7 @@
         <v>17</v>
       </c>
       <c r="B13" s="13" t="n">
-        <v>16.0</v>
+        <v>0.0</v>
       </c>
       <c r="C13" s="13" t="n">
         <v>0.0</v>
@@ -491,7 +508,7 @@
         <v>0.0</v>
       </c>
       <c r="E13" s="13" t="n">
-        <v>0.0</v>
+        <v>66.0</v>
       </c>
       <c r="F13" s="13" t="n">
         <v>0.0</v>
@@ -502,19 +519,19 @@
         <v>18</v>
       </c>
       <c r="B14" s="14" t="n">
-        <v>32.0</v>
+        <v>0.0</v>
       </c>
       <c r="C14" s="14" t="n">
         <v>0.0</v>
       </c>
       <c r="D14" s="14" t="n">
-        <v>24.0</v>
+        <v>0.0</v>
       </c>
       <c r="E14" s="14" t="n">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="F14" s="14" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="15">
@@ -522,7 +539,7 @@
         <v>19</v>
       </c>
       <c r="B15" s="15" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C15" s="15" t="n">
         <v>0.0</v>
@@ -531,7 +548,7 @@
         <v>0.0</v>
       </c>
       <c r="E15" s="15" t="n">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="F15" s="15" t="n">
         <v>0.0</v>
@@ -542,19 +559,19 @@
         <v>20</v>
       </c>
       <c r="B16" s="16" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="C16" s="16" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="D16" s="16" t="n">
-        <v>32.0</v>
+        <v>0.0</v>
       </c>
       <c r="E16" s="16" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="F16" s="16" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="17">
@@ -562,19 +579,19 @@
         <v>21</v>
       </c>
       <c r="B17" s="17" t="n">
-        <v>28.0</v>
+        <v>0.0</v>
       </c>
       <c r="C17" s="17" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="D17" s="17" t="n">
         <v>0.0</v>
       </c>
       <c r="E17" s="17" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="F17" s="17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="18">
@@ -582,19 +599,19 @@
         <v>22</v>
       </c>
       <c r="B18" s="18" t="n">
-        <v>14.0</v>
+        <v>0.0</v>
       </c>
       <c r="C18" s="18" t="n">
         <v>0.0</v>
       </c>
       <c r="D18" s="18" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="E18" s="18" t="n">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="F18" s="18" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="19">
@@ -602,19 +619,19 @@
         <v>23</v>
       </c>
       <c r="B19" s="19" t="n">
-        <v>18.0</v>
+        <v>0.0</v>
       </c>
       <c r="C19" s="19" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="D19" s="19" t="n">
-        <v>24.0</v>
+        <v>0.0</v>
       </c>
       <c r="E19" s="19" t="n">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="F19" s="19" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="20">
@@ -622,7 +639,7 @@
         <v>24</v>
       </c>
       <c r="B20" s="20" t="n">
-        <v>16.0</v>
+        <v>0.0</v>
       </c>
       <c r="C20" s="20" t="n">
         <v>0.0</v>
@@ -631,10 +648,10 @@
         <v>0.0</v>
       </c>
       <c r="E20" s="20" t="n">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="F20" s="20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="21">
@@ -642,16 +659,16 @@
         <v>25</v>
       </c>
       <c r="B21" s="21" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="C21" s="21" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="D21" s="21" t="n">
         <v>0.0</v>
       </c>
       <c r="E21" s="21" t="n">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="F21" s="21" t="n">
         <v>0.0</v>
@@ -662,7 +679,7 @@
         <v>26</v>
       </c>
       <c r="B22" s="22" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="C22" s="22" t="n">
         <v>0.0</v>
@@ -671,10 +688,10 @@
         <v>0.0</v>
       </c>
       <c r="E22" s="22" t="n">
-        <v>0.0</v>
+        <v>18.75</v>
       </c>
       <c r="F22" s="22" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="23">
@@ -682,16 +699,16 @@
         <v>27</v>
       </c>
       <c r="B23" s="23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C23" s="23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D23" s="23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E23" s="23" t="n">
         <v>12.0</v>
-      </c>
-      <c r="C23" s="23" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="D23" s="23" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E23" s="23" t="n">
-        <v>0.0</v>
       </c>
       <c r="F23" s="23" t="n">
         <v>0.0</v>
@@ -702,19 +719,19 @@
         <v>28</v>
       </c>
       <c r="B24" s="24" t="n">
-        <v>24.0</v>
+        <v>0.0</v>
       </c>
       <c r="C24" s="24" t="n">
         <v>0.0</v>
       </c>
       <c r="D24" s="24" t="n">
-        <v>36.0</v>
+        <v>0.0</v>
       </c>
       <c r="E24" s="24" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="F24" s="24" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="25">
@@ -722,19 +739,19 @@
         <v>29</v>
       </c>
       <c r="B25" s="25" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="C25" s="25" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="D25" s="25" t="n">
         <v>0.0</v>
       </c>
       <c r="E25" s="25" t="n">
-        <v>0.0</v>
+        <v>28.5</v>
       </c>
       <c r="F25" s="25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
@@ -742,19 +759,19 @@
         <v>30</v>
       </c>
       <c r="B26" s="26" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="C26" s="26" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="D26" s="26" t="n">
         <v>0.0</v>
       </c>
       <c r="E26" s="26" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="F26" s="26" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
@@ -762,19 +779,19 @@
         <v>31</v>
       </c>
       <c r="B27" s="27" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="C27" s="27" t="n">
         <v>0.0</v>
       </c>
       <c r="D27" s="27" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="E27" s="27" t="n">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="F27" s="27" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="28">
@@ -782,16 +799,16 @@
         <v>32</v>
       </c>
       <c r="B28" s="28" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="C28" s="28" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="D28" s="28" t="n">
         <v>0.0</v>
       </c>
       <c r="E28" s="28" t="n">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="F28" s="28" t="n">
         <v>0.0</v>
@@ -802,19 +819,19 @@
         <v>33</v>
       </c>
       <c r="B29" s="29" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="C29" s="29" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="D29" s="29" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="E29" s="29" t="n">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="F29" s="29" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="30">
@@ -828,10 +845,10 @@
         <v>0.0</v>
       </c>
       <c r="D30" s="30" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="E30" s="30" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="F30" s="30" t="n">
         <v>0.0</v>
@@ -848,10 +865,10 @@
         <v>0.0</v>
       </c>
       <c r="D31" s="31" t="n">
-        <v>32.0</v>
+        <v>0.0</v>
       </c>
       <c r="E31" s="31" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="F31" s="31" t="n">
         <v>0.0</v>
@@ -868,10 +885,10 @@
         <v>0.0</v>
       </c>
       <c r="D32" s="32" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="E32" s="32" t="n">
-        <v>138.25</v>
+        <v>4.0</v>
       </c>
       <c r="F32" s="32" t="n">
         <v>0.0</v>
@@ -888,10 +905,10 @@
         <v>0.0</v>
       </c>
       <c r="D33" s="33" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="E33" s="33" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="F33" s="33" t="n">
         <v>0.0</v>
@@ -908,13 +925,13 @@
         <v>0.0</v>
       </c>
       <c r="D34" s="34" t="n">
-        <v>24.0</v>
+        <v>0.0</v>
       </c>
       <c r="E34" s="34" t="n">
-        <v>0.0</v>
+        <v>78.75</v>
       </c>
       <c r="F34" s="34" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="35">
@@ -928,10 +945,10 @@
         <v>0.0</v>
       </c>
       <c r="D35" s="35" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="E35" s="35" t="n">
-        <v>0.0</v>
+        <v>46.0</v>
       </c>
       <c r="F35" s="35" t="n">
         <v>0.0</v>
@@ -951,7 +968,7 @@
         <v>0.0</v>
       </c>
       <c r="E36" s="36" t="n">
-        <v>142.25</v>
+        <v>14.0</v>
       </c>
       <c r="F36" s="36" t="n">
         <v>0.0</v>
@@ -971,7 +988,7 @@
         <v>0.0</v>
       </c>
       <c r="E37" s="37" t="n">
-        <v>2.0</v>
+        <v>56.0</v>
       </c>
       <c r="F37" s="37" t="n">
         <v>0.0</v>
@@ -991,15 +1008,15 @@
         <v>0.0</v>
       </c>
       <c r="E38" s="38" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="F38" s="38" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="B39" s="39" t="n">
         <v>0.0</v>
@@ -1011,30 +1028,130 @@
         <v>0.0</v>
       </c>
       <c r="E39" s="39" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="F39" s="39" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B40" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C40" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D40" s="40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E40" s="40" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F40" s="40" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="B40" s="40" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C40" s="40" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D40" s="40" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E40" s="40" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F40" s="40" t="n">
+      <c r="B41" s="41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C41" s="41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D41" s="41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E41" s="41" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F41" s="41" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B42" s="42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C42" s="42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D42" s="42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E42" s="42" t="n">
         <v>2.0</v>
+      </c>
+      <c r="F42" s="42" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B43" s="43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C43" s="43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D43" s="43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E43" s="43" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F43" s="43" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B44" s="44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C44" s="44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D44" s="44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E44" s="44" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="F44" s="44" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="B45" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C45" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D45" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E45" s="45" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F45" s="45" t="n">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -56,15 +56,18 @@
     <t>TAS</t>
   </si>
   <si>
-    <t>YL</t>
-  </si>
-  <si>
-    <t>KRTA9AD1</t>
+    <t>KRTA9AD1/KUPT9BA2</t>
   </si>
   <si>
     <t>KRTA9AD2</t>
   </si>
   <si>
+    <t>KRTA9AA3/KUPT9BB1</t>
+  </si>
+  <si>
+    <t>GC</t>
+  </si>
+  <si>
     <t>Capgemini</t>
   </si>
   <si>
@@ -98,12 +101,12 @@
     <t>Catalyseur</t>
   </si>
   <si>
-    <t>KRTA9AA3</t>
-  </si>
-  <si>
     <t>PD</t>
   </si>
   <si>
+    <t>CT/PT</t>
+  </si>
+  <si>
     <t>JGT</t>
   </si>
   <si>
@@ -119,15 +122,15 @@
     <t>SY</t>
   </si>
   <si>
-    <t>CT/PT</t>
-  </si>
-  <si>
     <t>ZZAnonyme</t>
   </si>
   <si>
     <t>EG/FM</t>
   </si>
   <si>
+    <t>BS/AV</t>
+  </si>
+  <si>
     <t>PL</t>
   </si>
   <si>
@@ -135,9 +138,6 @@
   </si>
   <si>
     <t>ZZApogeeMissing</t>
-  </si>
-  <si>
-    <t>MOOC/BE/Projet…</t>
   </si>
   <si>
     <t>CapGemini</t>
@@ -262,7 +262,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>12.0</v>
+        <v>16.0</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>0.0</v>
@@ -322,7 +322,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>26.0</v>
+        <v>22.0</v>
       </c>
       <c r="C5" s="5" t="n">
         <v>10.0</v>
@@ -342,7 +342,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="6" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="C6" s="6" t="n">
         <v>2.0</v>
@@ -351,7 +351,7 @@
         <v>0.0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2.0</v>
+        <v>0.75</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>2.0</v>
@@ -402,7 +402,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="9" t="n">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="C9" s="9" t="n">
         <v>8.0</v>
@@ -422,10 +422,10 @@
         <v>14</v>
       </c>
       <c r="B10" s="10" t="n">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="C10" s="10" t="n">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="D10" s="10" t="n">
         <v>0.0</v>
@@ -434,7 +434,7 @@
         <v>0.0</v>
       </c>
       <c r="F10" s="10" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="11">
@@ -442,10 +442,10 @@
         <v>15</v>
       </c>
       <c r="B11" s="11" t="n">
-        <v>14.0</v>
+        <v>19.0</v>
       </c>
       <c r="C11" s="11" t="n">
-        <v>17.0</v>
+        <v>0.0</v>
       </c>
       <c r="D11" s="11" t="n">
         <v>0.0</v>
@@ -454,7 +454,7 @@
         <v>0.0</v>
       </c>
       <c r="F11" s="11" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
@@ -462,19 +462,19 @@
         <v>16</v>
       </c>
       <c r="B12" s="12" t="n">
-        <v>19.0</v>
+        <v>24.0</v>
       </c>
       <c r="C12" s="12" t="n">
         <v>0.0</v>
       </c>
       <c r="D12" s="12" t="n">
-        <v>0.0</v>
+        <v>52.75</v>
       </c>
       <c r="E12" s="12" t="n">
         <v>0.0</v>
       </c>
       <c r="F12" s="12" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="13">
@@ -482,7 +482,7 @@
         <v>17</v>
       </c>
       <c r="B13" s="13" t="n">
-        <v>16.0</v>
+        <v>8.0</v>
       </c>
       <c r="C13" s="13" t="n">
         <v>0.0</v>
@@ -494,7 +494,7 @@
         <v>0.0</v>
       </c>
       <c r="F13" s="13" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="14">
@@ -502,19 +502,19 @@
         <v>18</v>
       </c>
       <c r="B14" s="14" t="n">
-        <v>32.0</v>
+        <v>16.0</v>
       </c>
       <c r="C14" s="14" t="n">
         <v>0.0</v>
       </c>
       <c r="D14" s="14" t="n">
-        <v>24.0</v>
+        <v>0.0</v>
       </c>
       <c r="E14" s="14" t="n">
         <v>0.0</v>
       </c>
       <c r="F14" s="14" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="15">
@@ -522,19 +522,19 @@
         <v>19</v>
       </c>
       <c r="B15" s="15" t="n">
-        <v>2.0</v>
+        <v>32.0</v>
       </c>
       <c r="C15" s="15" t="n">
         <v>0.0</v>
       </c>
       <c r="D15" s="15" t="n">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="E15" s="15" t="n">
         <v>0.0</v>
       </c>
       <c r="F15" s="15" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="16">
@@ -542,19 +542,19 @@
         <v>20</v>
       </c>
       <c r="B16" s="16" t="n">
-        <v>20.0</v>
+        <v>2.0</v>
       </c>
       <c r="C16" s="16" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="D16" s="16" t="n">
-        <v>32.0</v>
+        <v>0.0</v>
       </c>
       <c r="E16" s="16" t="n">
         <v>0.0</v>
       </c>
       <c r="F16" s="16" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="17">
@@ -562,19 +562,19 @@
         <v>21</v>
       </c>
       <c r="B17" s="17" t="n">
-        <v>28.0</v>
+        <v>22.0</v>
       </c>
       <c r="C17" s="17" t="n">
         <v>4.0</v>
       </c>
       <c r="D17" s="17" t="n">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="E17" s="17" t="n">
         <v>0.0</v>
       </c>
       <c r="F17" s="17" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="18">
@@ -582,19 +582,19 @@
         <v>22</v>
       </c>
       <c r="B18" s="18" t="n">
-        <v>14.0</v>
+        <v>28.0</v>
       </c>
       <c r="C18" s="18" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="D18" s="18" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="E18" s="18" t="n">
         <v>0.0</v>
       </c>
       <c r="F18" s="18" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="19">
@@ -602,13 +602,13 @@
         <v>23</v>
       </c>
       <c r="B19" s="19" t="n">
-        <v>18.0</v>
+        <v>14.0</v>
       </c>
       <c r="C19" s="19" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="D19" s="19" t="n">
-        <v>24.0</v>
+        <v>20.0</v>
       </c>
       <c r="E19" s="19" t="n">
         <v>0.0</v>
@@ -622,19 +622,19 @@
         <v>24</v>
       </c>
       <c r="B20" s="20" t="n">
-        <v>16.0</v>
+        <v>18.0</v>
       </c>
       <c r="C20" s="20" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="D20" s="20" t="n">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="E20" s="20" t="n">
         <v>0.0</v>
       </c>
       <c r="F20" s="20" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="21">
@@ -642,10 +642,10 @@
         <v>25</v>
       </c>
       <c r="B21" s="21" t="n">
-        <v>10.0</v>
+        <v>16.0</v>
       </c>
       <c r="C21" s="21" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="D21" s="21" t="n">
         <v>0.0</v>
@@ -654,7 +654,7 @@
         <v>0.0</v>
       </c>
       <c r="F21" s="21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="22">
@@ -662,10 +662,10 @@
         <v>26</v>
       </c>
       <c r="B22" s="22" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="C22" s="22" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="D22" s="22" t="n">
         <v>0.0</v>
@@ -674,7 +674,7 @@
         <v>0.0</v>
       </c>
       <c r="F22" s="22" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="23">
@@ -682,10 +682,10 @@
         <v>27</v>
       </c>
       <c r="B23" s="23" t="n">
-        <v>12.0</v>
+        <v>6.0</v>
       </c>
       <c r="C23" s="23" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="D23" s="23" t="n">
         <v>0.0</v>
@@ -694,7 +694,7 @@
         <v>0.0</v>
       </c>
       <c r="F23" s="23" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="24">
@@ -702,19 +702,19 @@
         <v>28</v>
       </c>
       <c r="B24" s="24" t="n">
-        <v>24.0</v>
+        <v>12.0</v>
       </c>
       <c r="C24" s="24" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="D24" s="24" t="n">
-        <v>36.0</v>
+        <v>0.0</v>
       </c>
       <c r="E24" s="24" t="n">
         <v>0.0</v>
       </c>
       <c r="F24" s="24" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="25">
@@ -742,19 +742,19 @@
         <v>30</v>
       </c>
       <c r="B26" s="26" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="C26" s="26" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="D26" s="26" t="n">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="E26" s="26" t="n">
         <v>0.0</v>
       </c>
       <c r="F26" s="26" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
@@ -762,13 +762,13 @@
         <v>31</v>
       </c>
       <c r="B27" s="27" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="C27" s="27" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="D27" s="27" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="E27" s="27" t="n">
         <v>0.0</v>
@@ -782,19 +782,19 @@
         <v>32</v>
       </c>
       <c r="B28" s="28" t="n">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="C28" s="28" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="D28" s="28" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="E28" s="28" t="n">
         <v>0.0</v>
       </c>
       <c r="F28" s="28" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="29">
@@ -802,19 +802,19 @@
         <v>33</v>
       </c>
       <c r="B29" s="29" t="n">
-        <v>22.0</v>
+        <v>10.0</v>
       </c>
       <c r="C29" s="29" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="D29" s="29" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="E29" s="29" t="n">
         <v>0.0</v>
       </c>
       <c r="F29" s="29" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="30">
@@ -822,19 +822,19 @@
         <v>34</v>
       </c>
       <c r="B30" s="30" t="n">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="C30" s="30" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="D30" s="30" t="n">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="E30" s="30" t="n">
         <v>0.0</v>
       </c>
       <c r="F30" s="30" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="31">
@@ -848,7 +848,7 @@
         <v>0.0</v>
       </c>
       <c r="D31" s="31" t="n">
-        <v>32.0</v>
+        <v>8.0</v>
       </c>
       <c r="E31" s="31" t="n">
         <v>0.0</v>
@@ -868,10 +868,10 @@
         <v>0.0</v>
       </c>
       <c r="D32" s="32" t="n">
-        <v>12.0</v>
+        <v>15.0</v>
       </c>
       <c r="E32" s="32" t="n">
-        <v>138.25</v>
+        <v>134.25</v>
       </c>
       <c r="F32" s="32" t="n">
         <v>0.0</v>
@@ -908,7 +908,7 @@
         <v>0.0</v>
       </c>
       <c r="D34" s="34" t="n">
-        <v>24.0</v>
+        <v>29.75</v>
       </c>
       <c r="E34" s="34" t="n">
         <v>0.0</v>
@@ -948,10 +948,10 @@
         <v>0.0</v>
       </c>
       <c r="D36" s="36" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="E36" s="36" t="n">
-        <v>142.25</v>
+        <v>0.0</v>
       </c>
       <c r="F36" s="36" t="n">
         <v>0.0</v>
@@ -971,7 +971,7 @@
         <v>0.0</v>
       </c>
       <c r="E37" s="37" t="n">
-        <v>2.0</v>
+        <v>135.0</v>
       </c>
       <c r="F37" s="37" t="n">
         <v>0.0</v>
